--- a/dataset/C19_dataset.xlsx
+++ b/dataset/C19_dataset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ML_projects\covid-bd map\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reza's\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F871A58D-FCF4-4C27-8EF3-E83B52781AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>Division</t>
   </si>
@@ -238,13 +237,19 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t> 89.5840</t>
+  </si>
+  <si>
+    <t> 88.9318</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +263,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -280,10 +291,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,23 +578,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="4" width="19.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -620,7 +634,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -640,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -657,7 +671,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -677,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -697,7 +711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -714,7 +728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -734,7 +748,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -754,7 +768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -791,7 +805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -808,7 +822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,7 +842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -865,7 +879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,7 +899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -902,7 +916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -922,7 +936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -942,7 +956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -959,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -979,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -996,7 +1010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1033,7 +1047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1050,7 +1064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +1084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,7 +1101,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -1158,7 +1172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -1192,7 +1206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -1209,7 +1223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1226,7 +1240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -1260,68 +1274,104 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C38" s="2">
+        <v>22.845600000000001</v>
+      </c>
+      <c r="D38" s="2">
+        <v>89.540300000000002</v>
+      </c>
       <c r="E38" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C39" s="2">
+        <v>23.177800000000001</v>
+      </c>
+      <c r="D39" s="2">
+        <v>89.180099999999996</v>
+      </c>
       <c r="E39" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C40" s="2">
+        <v>22.6555</v>
+      </c>
+      <c r="D40" s="2">
+        <v>89.766199999999998</v>
+      </c>
       <c r="E40" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C41" s="2">
+        <v>23.116299999999999</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E41" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C42" s="2">
+        <v>23.485499999999998</v>
+      </c>
+      <c r="D42" s="2">
+        <v>89.419799999999995</v>
+      </c>
       <c r="E42" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C43" s="2">
+        <v>23.805199999999999</v>
+      </c>
+      <c r="D43" s="2">
+        <v>88.672399999999996</v>
+      </c>
       <c r="E43" s="1">
         <v>2</v>
       </c>
@@ -1329,57 +1379,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C44" s="2">
+        <v>22.3155</v>
+      </c>
+      <c r="D44" s="2">
+        <v>89.111500000000007</v>
+      </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="C45" s="2">
+        <v>23.545000000000002</v>
+      </c>
+      <c r="D45" s="2">
+        <v>89.172600000000003</v>
+      </c>
       <c r="E45" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C46" s="2">
+        <v>23.908799999999999</v>
+      </c>
+      <c r="D46" s="2">
+        <v>89.122</v>
+      </c>
       <c r="E46" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C47" s="2">
+        <v>23.6418</v>
+      </c>
+      <c r="D47" s="2">
+        <v>88.857699999999994</v>
+      </c>
       <c r="E47" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C48" s="2">
+        <v>24.7471</v>
+      </c>
+      <c r="D48" s="2">
+        <v>90.420299999999997</v>
+      </c>
       <c r="E48" s="1">
         <v>143</v>
       </c>
@@ -1387,13 +1467,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C49" s="2">
+        <v>24.925000000000001</v>
+      </c>
+      <c r="D49" s="2">
+        <v>89.946299999999994</v>
+      </c>
       <c r="E49" s="1">
         <v>61</v>
       </c>
@@ -1401,35 +1487,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C50" s="2">
+        <v>24.881699999999999</v>
+      </c>
+      <c r="D50" s="2">
+        <v>90.727099999999993</v>
+      </c>
       <c r="E50" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C51" s="2">
+        <v>25.019400000000001</v>
+      </c>
+      <c r="D51" s="2">
+        <v>90.0137</v>
+      </c>
       <c r="E51" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C52" s="2">
+        <v>22.095300000000002</v>
+      </c>
+      <c r="D52" s="2">
+        <v>90.112099999999998</v>
+      </c>
       <c r="E52" s="1">
         <v>30</v>
       </c>
@@ -1437,35 +1541,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="C53" s="2">
+        <v>22.1785</v>
+      </c>
+      <c r="D53" s="2">
+        <v>90.710099999999997</v>
+      </c>
       <c r="E53" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C54" s="2">
+        <v>22.701000000000001</v>
+      </c>
+      <c r="D54" s="2">
+        <v>90.353499999999997</v>
+      </c>
       <c r="E54" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="C55" s="2">
+        <v>22.358599999999999</v>
+      </c>
+      <c r="D55" s="2">
+        <v>90.331699999999998</v>
+      </c>
       <c r="E55" s="1">
         <v>27</v>
       </c>
@@ -1473,35 +1595,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C56" s="2">
+        <v>22.584099999999999</v>
+      </c>
+      <c r="D56" s="2">
+        <v>89.971999999999994</v>
+      </c>
       <c r="E56" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C57" s="2">
+        <v>22.572099999999999</v>
+      </c>
+      <c r="D57" s="2">
+        <v>90.186999999999998</v>
+      </c>
       <c r="E57" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C58" s="2">
+        <v>25.096800000000002</v>
+      </c>
+      <c r="D58" s="2">
+        <v>89.0227</v>
+      </c>
       <c r="E58" s="1">
         <v>32</v>
       </c>
@@ -1509,78 +1649,120 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="C59" s="2">
+        <v>24.012899999999998</v>
+      </c>
+      <c r="D59" s="2">
+        <v>89.259100000000004</v>
+      </c>
       <c r="E59" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="C60" s="2">
+        <v>24.741299999999999</v>
+      </c>
+      <c r="D60" s="2">
+        <v>88.291200000000003</v>
+      </c>
       <c r="E60" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="C61" s="2">
+        <v>24.848099999999999</v>
+      </c>
+      <c r="D61" s="2">
+        <v>89.373000000000005</v>
+      </c>
       <c r="E61" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="C62" s="2">
+        <v>24.407900000000001</v>
+      </c>
+      <c r="D62" s="2">
+        <v>88.974900000000005</v>
+      </c>
       <c r="E62" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="C63" s="2">
+        <v>24.793600000000001</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E63" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="C64" s="2">
+        <v>24.4526</v>
+      </c>
+      <c r="D64" s="2">
+        <v>89.681600000000003</v>
+      </c>
       <c r="E64" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="C65" s="2">
+        <v>24.374500000000001</v>
+      </c>
+      <c r="D65" s="2">
+        <v>88.604200000000006</v>
       </c>
       <c r="E65" s="1">
         <v>19</v>
